--- a/data_year/zb/建筑业/建筑业企业技术装备情况.xlsx
+++ b/data_year/zb/建筑业/建筑业企业技术装备情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.6</v>
+        <v>4.6596987942</v>
       </c>
       <c r="C2" t="n">
-        <v>6304</v>
+        <v>9547.0414195352</v>
       </c>
       <c r="D2" t="n">
-        <v>12572317</v>
+        <v>39719872</v>
       </c>
       <c r="E2" t="n">
-        <v>9228.1</v>
+        <v>19386.387</v>
       </c>
       <c r="F2" t="n">
-        <v>6259885</v>
+        <v>11209484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.86</v>
+        <v>5.6645192064</v>
       </c>
       <c r="C3" t="n">
-        <v>7136</v>
+        <v>12025.2947372796</v>
       </c>
       <c r="D3" t="n">
-        <v>15062491</v>
+        <v>46327126.9</v>
       </c>
       <c r="E3" t="n">
-        <v>10251.72</v>
+        <v>21822.409</v>
       </c>
       <c r="F3" t="n">
-        <v>7022174</v>
+        <v>10054231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.91</v>
+        <v>5.6887578821</v>
       </c>
       <c r="C4" t="n">
-        <v>9675</v>
+        <v>13374.165567635</v>
       </c>
       <c r="D4" t="n">
-        <v>21722927</v>
+        <v>57070803.7</v>
       </c>
       <c r="E4" t="n">
-        <v>11022.52</v>
+        <v>24275.3077</v>
       </c>
       <c r="F4" t="n">
-        <v>7540011</v>
+        <v>10157280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.85</v>
+        <v>5.614395523</v>
       </c>
       <c r="C5" t="n">
-        <v>9957</v>
+        <v>13457.8084655949</v>
       </c>
       <c r="D5" t="n">
-        <v>24039576</v>
+        <v>60941735.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11712.38</v>
+        <v>25423.9766</v>
       </c>
       <c r="F5" t="n">
-        <v>8001782</v>
+        <v>11467280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.8</v>
+        <v>6.5246534479</v>
       </c>
       <c r="C6" t="n">
-        <v>9297</v>
+        <v>12518.8488733934</v>
       </c>
       <c r="D6" t="n">
-        <v>23245244.3</v>
+        <v>56797668.0627024</v>
       </c>
       <c r="E6" t="n">
-        <v>14584.05</v>
+        <v>29602.1706551259</v>
       </c>
       <c r="F6" t="n">
-        <v>8466386</v>
+        <v>12030587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.0984964063</v>
+        <v>5.2490265951</v>
       </c>
       <c r="C7" t="n">
-        <v>9273.480903117001</v>
+        <v>11115.761282226</v>
       </c>
       <c r="D7" t="n">
-        <v>25037702</v>
+        <v>56619984.2</v>
       </c>
       <c r="E7" t="n">
-        <v>13765.5574</v>
+        <v>26736.7925</v>
       </c>
       <c r="F7" t="n">
-        <v>8798527</v>
+        <v>9643725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.9185234756</v>
+        <v>4.9</v>
       </c>
       <c r="C8" t="n">
-        <v>9109.135870911399</v>
+        <v>10805.4143724989</v>
       </c>
       <c r="D8" t="n">
-        <v>26217542.3</v>
+        <v>56021121.4</v>
       </c>
       <c r="E8" t="n">
-        <v>14156.2931</v>
+        <v>25365.25</v>
       </c>
       <c r="F8" t="n">
-        <v>8973042</v>
+        <v>9579327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.9715466797</v>
+        <v>4.6116253736</v>
       </c>
       <c r="C9" t="n">
-        <v>9208.355548736499</v>
+        <v>9913.5742964828</v>
       </c>
       <c r="D9" t="n">
-        <v>28856330.6</v>
+        <v>54818436.5</v>
       </c>
       <c r="E9" t="n">
-        <v>15579.3935</v>
+        <v>25500.6</v>
       </c>
       <c r="F9" t="n">
-        <v>9487515</v>
+        <v>10225555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C10" t="n">
-        <v>9915</v>
+        <v>11774.1</v>
       </c>
       <c r="D10" t="n">
-        <v>32869150.6</v>
+        <v>62464586.3</v>
       </c>
       <c r="E10" t="n">
-        <v>18195.3677</v>
+        <v>25757.6541</v>
       </c>
       <c r="F10" t="n">
-        <v>9448056</v>
+        <v>10923709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="C11" t="n">
-        <v>10088</v>
+        <v>10770.1</v>
       </c>
       <c r="D11" t="n">
-        <v>37049783.7</v>
+        <v>58450114.4</v>
       </c>
       <c r="E11" t="n">
-        <v>19022.5552</v>
+        <v>25117.801</v>
       </c>
       <c r="F11" t="n">
-        <v>9734910</v>
+        <v>9833258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.6596987942</v>
+        <v>5.1</v>
       </c>
       <c r="C12" t="n">
-        <v>9547.0414195352</v>
+        <v>9781.1</v>
       </c>
       <c r="D12" t="n">
-        <v>39719872</v>
+        <v>52494828.4</v>
       </c>
       <c r="E12" t="n">
-        <v>19386.387</v>
+        <v>27321.7713</v>
       </c>
       <c r="F12" t="n">
-        <v>11209484</v>
+        <v>8166436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.6645192064</v>
+        <v>4.3</v>
       </c>
       <c r="C13" t="n">
-        <v>12025.2947372796</v>
+        <v>8639.1</v>
       </c>
       <c r="D13" t="n">
-        <v>46327126.9</v>
+        <v>45635348.7</v>
       </c>
       <c r="E13" t="n">
-        <v>21822.409</v>
+        <v>22920.8585</v>
       </c>
       <c r="F13" t="n">
-        <v>10054231</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.6887578821</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13374.165567635</v>
-      </c>
-      <c r="D14" t="n">
-        <v>57070803.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24275.3077</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10157280</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5.614395523</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13457.8084655949</v>
-      </c>
-      <c r="D15" t="n">
-        <v>60941735.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25423.9766</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11467280</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6.5246534479</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12518.8488733934</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56797668.0627024</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29602.1706551259</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12030587</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5.2490265951</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11115.761282226</v>
-      </c>
-      <c r="D17" t="n">
-        <v>56619984.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26736.7925</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9643725</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10805.4143724989</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56021121.4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25365.25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9579327</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.6116253736</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9913.5742964828</v>
-      </c>
-      <c r="D19" t="n">
-        <v>54818436.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25500.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10225555</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11774.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>62464586.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25757.6541</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10923709</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10770.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>58450114.4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25117.801</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9833258</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9781.1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>52494828.4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>27321.7713</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8166436</v>
+        <v>7394261</v>
       </c>
     </row>
   </sheetData>
